--- a/week13/US家計消費.xlsx
+++ b/week13/US家計消費.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liurenhao/Documents/GitHub/111-1-econDV/111-1-econDV/week13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224D506B-4FE8-B940-844A-B27D3C7042E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D05A22-0AC3-3048-AEF5-0E13899D1D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OECD.Stat export" sheetId="1" r:id="rId1"/>
@@ -1436,6 +1436,24 @@
     <xf numFmtId="176" fontId="32" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1480,24 +1498,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD53"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1891,206 +1891,206 @@
       </c>
     </row>
     <row r="3" spans="1:58">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
-      <c r="AR3" s="20"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="20"/>
-      <c r="AU3" s="20"/>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="20"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="20"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="20"/>
-      <c r="BC3" s="20"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="20"/>
-      <c r="BF3" s="21"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="26"/>
+      <c r="BA3" s="26"/>
+      <c r="BB3" s="26"/>
+      <c r="BC3" s="26"/>
+      <c r="BD3" s="26"/>
+      <c r="BE3" s="26"/>
+      <c r="BF3" s="27"/>
     </row>
     <row r="4" spans="1:58">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="22" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="23"/>
-      <c r="AQ4" s="23"/>
-      <c r="AR4" s="23"/>
-      <c r="AS4" s="23"/>
-      <c r="AT4" s="23"/>
-      <c r="AU4" s="23"/>
-      <c r="AV4" s="23"/>
-      <c r="AW4" s="23"/>
-      <c r="AX4" s="23"/>
-      <c r="AY4" s="23"/>
-      <c r="AZ4" s="23"/>
-      <c r="BA4" s="23"/>
-      <c r="BB4" s="23"/>
-      <c r="BC4" s="23"/>
-      <c r="BD4" s="23"/>
-      <c r="BE4" s="23"/>
-      <c r="BF4" s="24"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="29"/>
+      <c r="AQ4" s="29"/>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="29"/>
+      <c r="AT4" s="29"/>
+      <c r="AU4" s="29"/>
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="29"/>
+      <c r="AX4" s="29"/>
+      <c r="AY4" s="29"/>
+      <c r="AZ4" s="29"/>
+      <c r="BA4" s="29"/>
+      <c r="BB4" s="29"/>
+      <c r="BC4" s="29"/>
+      <c r="BD4" s="29"/>
+      <c r="BE4" s="29"/>
+      <c r="BF4" s="30"/>
     </row>
     <row r="5" spans="1:58">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="22" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="23"/>
-      <c r="AJ5" s="23"/>
-      <c r="AK5" s="23"/>
-      <c r="AL5" s="23"/>
-      <c r="AM5" s="23"/>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="23"/>
-      <c r="AQ5" s="23"/>
-      <c r="AR5" s="23"/>
-      <c r="AS5" s="23"/>
-      <c r="AT5" s="23"/>
-      <c r="AU5" s="23"/>
-      <c r="AV5" s="23"/>
-      <c r="AW5" s="23"/>
-      <c r="AX5" s="23"/>
-      <c r="AY5" s="23"/>
-      <c r="AZ5" s="23"/>
-      <c r="BA5" s="23"/>
-      <c r="BB5" s="23"/>
-      <c r="BC5" s="23"/>
-      <c r="BD5" s="23"/>
-      <c r="BE5" s="23"/>
-      <c r="BF5" s="24"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="29"/>
+      <c r="AL5" s="29"/>
+      <c r="AM5" s="29"/>
+      <c r="AN5" s="29"/>
+      <c r="AO5" s="29"/>
+      <c r="AP5" s="29"/>
+      <c r="AQ5" s="29"/>
+      <c r="AR5" s="29"/>
+      <c r="AS5" s="29"/>
+      <c r="AT5" s="29"/>
+      <c r="AU5" s="29"/>
+      <c r="AV5" s="29"/>
+      <c r="AW5" s="29"/>
+      <c r="AX5" s="29"/>
+      <c r="AY5" s="29"/>
+      <c r="AZ5" s="29"/>
+      <c r="BA5" s="29"/>
+      <c r="BB5" s="29"/>
+      <c r="BC5" s="29"/>
+      <c r="BD5" s="29"/>
+      <c r="BE5" s="29"/>
+      <c r="BF5" s="30"/>
     </row>
     <row r="6" spans="1:58">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2249,13 +2249,13 @@
       </c>
     </row>
     <row r="7" spans="1:58" ht="14">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="5" t="s">
         <v>62</v>
       </c>
@@ -2417,13 +2417,13 @@
       </c>
     </row>
     <row r="8" spans="1:58" ht="14">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="5" t="s">
         <v>63</v>
       </c>
@@ -2585,15 +2585,15 @@
       </c>
     </row>
     <row r="9" spans="1:58" ht="14">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="5" t="s">
         <v>62</v>
       </c>
@@ -2755,15 +2755,15 @@
       </c>
     </row>
     <row r="10" spans="1:58" ht="14">
-      <c r="A10" s="35"/>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="5" t="s">
         <v>63</v>
       </c>
@@ -2925,15 +2925,15 @@
       </c>
     </row>
     <row r="11" spans="1:58" ht="14">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="34" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="5" t="s">
         <v>63</v>
       </c>
@@ -3095,13 +3095,13 @@
       </c>
     </row>
     <row r="12" spans="1:58" ht="14">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="31" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="33"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="5" t="s">
         <v>63</v>
       </c>
@@ -3263,9 +3263,9 @@
       </c>
     </row>
     <row r="13" spans="1:58" ht="24">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="6" t="s">
         <v>69</v>
       </c>
@@ -3433,13 +3433,13 @@
       </c>
     </row>
     <row r="14" spans="1:58" ht="14">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="31" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="33"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="5" t="s">
         <v>63</v>
       </c>
@@ -3601,13 +3601,13 @@
       </c>
     </row>
     <row r="15" spans="1:58" ht="14">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="31" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="33"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="5" t="s">
         <v>63</v>
       </c>
@@ -3769,13 +3769,13 @@
       </c>
     </row>
     <row r="16" spans="1:58" ht="14">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="31" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="33"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="5" t="s">
         <v>63</v>
       </c>
@@ -3937,13 +3937,13 @@
       </c>
     </row>
     <row r="17" spans="1:58" ht="14">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="31" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="33"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="5" t="s">
         <v>63</v>
       </c>
@@ -4105,13 +4105,13 @@
       </c>
     </row>
     <row r="18" spans="1:58" ht="14">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="31" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="33"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="5" t="s">
         <v>63</v>
       </c>
@@ -4273,13 +4273,13 @@
       </c>
     </row>
     <row r="19" spans="1:58" ht="14">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="31" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="33"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="5" t="s">
         <v>63</v>
       </c>
@@ -4441,13 +4441,13 @@
       </c>
     </row>
     <row r="20" spans="1:58" ht="14">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="31" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="33"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="5" t="s">
         <v>63</v>
       </c>
@@ -4609,13 +4609,13 @@
       </c>
     </row>
     <row r="21" spans="1:58" ht="14">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="31" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="33"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="5" t="s">
         <v>63</v>
       </c>
@@ -4777,13 +4777,13 @@
       </c>
     </row>
     <row r="22" spans="1:58" ht="14">
-      <c r="A22" s="35"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="5" t="s">
         <v>63</v>
       </c>
@@ -4945,15 +4945,15 @@
       </c>
     </row>
     <row r="23" spans="1:58" ht="14">
-      <c r="A23" s="35"/>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="5" t="s">
         <v>63</v>
       </c>
@@ -5115,13 +5115,13 @@
       </c>
     </row>
     <row r="24" spans="1:58" ht="14">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="31" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="5" t="s">
         <v>63</v>
       </c>
@@ -5283,13 +5283,13 @@
       </c>
     </row>
     <row r="25" spans="1:58" ht="14">
-      <c r="A25" s="36"/>
-      <c r="B25" s="31" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="5" t="s">
         <v>63</v>
       </c>
@@ -5451,13 +5451,13 @@
       </c>
     </row>
     <row r="26" spans="1:58" ht="14">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="5" t="s">
         <v>63</v>
       </c>
@@ -5619,15 +5619,15 @@
       </c>
     </row>
     <row r="27" spans="1:58" ht="14">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="5" t="s">
         <v>63</v>
       </c>
@@ -5789,13 +5789,13 @@
       </c>
     </row>
     <row r="28" spans="1:58" ht="14">
-      <c r="A28" s="35"/>
-      <c r="B28" s="31" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="5" t="s">
         <v>63</v>
       </c>
@@ -5957,15 +5957,15 @@
       </c>
     </row>
     <row r="29" spans="1:58" ht="14">
-      <c r="A29" s="35"/>
-      <c r="B29" s="34" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="5" t="s">
         <v>63</v>
       </c>
@@ -6127,15 +6127,15 @@
       </c>
     </row>
     <row r="30" spans="1:58" ht="14">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="34" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="33"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="5" t="s">
         <v>63</v>
       </c>
@@ -6297,13 +6297,13 @@
       </c>
     </row>
     <row r="31" spans="1:58" ht="14">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="31" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="33"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="5" t="s">
         <v>63</v>
       </c>
@@ -6465,13 +6465,13 @@
       </c>
     </row>
     <row r="32" spans="1:58" ht="14">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="31" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
       <c r="F32" s="5" t="s">
         <v>63</v>
       </c>
@@ -6633,15 +6633,15 @@
       </c>
     </row>
     <row r="33" spans="1:58" ht="14">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="34" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="33"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="5" t="s">
         <v>63</v>
       </c>
@@ -6803,13 +6803,13 @@
       </c>
     </row>
     <row r="34" spans="1:58" ht="14">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="31" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="33"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="5" t="s">
         <v>63</v>
       </c>
@@ -6971,13 +6971,13 @@
       </c>
     </row>
     <row r="35" spans="1:58" ht="14">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="31" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="5" t="s">
         <v>63</v>
       </c>
@@ -7139,13 +7139,13 @@
       </c>
     </row>
     <row r="36" spans="1:58" ht="14">
-      <c r="A36" s="35"/>
-      <c r="B36" s="31" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
       <c r="F36" s="5" t="s">
         <v>63</v>
       </c>
@@ -7307,15 +7307,15 @@
       </c>
     </row>
     <row r="37" spans="1:58" ht="14">
-      <c r="A37" s="35"/>
-      <c r="B37" s="34" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
       <c r="F37" s="5" t="s">
         <v>63</v>
       </c>
@@ -7477,15 +7477,15 @@
       </c>
     </row>
     <row r="38" spans="1:58" ht="14">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="34" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="33"/>
+      <c r="E38" s="18"/>
       <c r="F38" s="5" t="s">
         <v>63</v>
       </c>
@@ -7647,13 +7647,13 @@
       </c>
     </row>
     <row r="39" spans="1:58" ht="14">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="31" t="s">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="33"/>
+      <c r="E39" s="18"/>
       <c r="F39" s="5" t="s">
         <v>62</v>
       </c>
@@ -7815,13 +7815,13 @@
       </c>
     </row>
     <row r="40" spans="1:58" ht="14">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="31" t="s">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="33"/>
+      <c r="E40" s="18"/>
       <c r="F40" s="5" t="s">
         <v>63</v>
       </c>
@@ -7983,10 +7983,10 @@
       </c>
     </row>
     <row r="41" spans="1:58" ht="24">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="34" t="s">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="19" t="s">
         <v>97</v>
       </c>
       <c r="E41" s="6" t="s">
@@ -8153,10 +8153,10 @@
       </c>
     </row>
     <row r="42" spans="1:58" ht="24">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="6" t="s">
         <v>99</v>
       </c>
@@ -8321,10 +8321,10 @@
       </c>
     </row>
     <row r="43" spans="1:58" ht="36">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="6" t="s">
         <v>100</v>
       </c>
@@ -8489,13 +8489,13 @@
       </c>
     </row>
     <row r="44" spans="1:58" ht="14">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="31" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="33"/>
+      <c r="E44" s="18"/>
       <c r="F44" s="5" t="s">
         <v>63</v>
       </c>
@@ -8657,13 +8657,13 @@
       </c>
     </row>
     <row r="45" spans="1:58" ht="14">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="31" t="s">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="18"/>
       <c r="F45" s="5" t="s">
         <v>63</v>
       </c>
@@ -8825,15 +8825,15 @@
       </c>
     </row>
     <row r="46" spans="1:58" ht="36">
-      <c r="A46" s="35"/>
-      <c r="B46" s="36"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="33"/>
+      <c r="E46" s="18"/>
       <c r="F46" s="5" t="s">
         <v>63</v>
       </c>
@@ -8995,13 +8995,13 @@
       </c>
     </row>
     <row r="47" spans="1:58" ht="14">
-      <c r="A47" s="35"/>
-      <c r="B47" s="31" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="33"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="18"/>
       <c r="F47" s="5" t="s">
         <v>63</v>
       </c>
@@ -9163,15 +9163,15 @@
       </c>
     </row>
     <row r="48" spans="1:58" ht="14">
-      <c r="A48" s="35"/>
-      <c r="B48" s="34" t="s">
+      <c r="A48" s="21"/>
+      <c r="B48" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="33"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="18"/>
       <c r="F48" s="5" t="s">
         <v>63</v>
       </c>
@@ -9333,15 +9333,15 @@
       </c>
     </row>
     <row r="49" spans="1:58" ht="14">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="34" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="33"/>
+      <c r="E49" s="18"/>
       <c r="F49" s="5" t="s">
         <v>63</v>
       </c>
@@ -9503,13 +9503,13 @@
       </c>
     </row>
     <row r="50" spans="1:58" ht="14">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="31" t="s">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="33"/>
+      <c r="E50" s="18"/>
       <c r="F50" s="5" t="s">
         <v>63</v>
       </c>
@@ -9671,13 +9671,13 @@
       </c>
     </row>
     <row r="51" spans="1:58" ht="14">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="31" t="s">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="33"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="18"/>
       <c r="F51" s="5" t="s">
         <v>63</v>
       </c>
@@ -9839,15 +9839,15 @@
       </c>
     </row>
     <row r="52" spans="1:58" ht="14">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="34" t="s">
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E52" s="33"/>
+      <c r="E52" s="18"/>
       <c r="F52" s="5" t="s">
         <v>63</v>
       </c>
@@ -10009,13 +10009,13 @@
       </c>
     </row>
     <row r="53" spans="1:58" ht="14">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="31" t="s">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="33"/>
+      <c r="E53" s="18"/>
       <c r="F53" s="5" t="s">
         <v>63</v>
       </c>
@@ -10177,13 +10177,13 @@
       </c>
     </row>
     <row r="54" spans="1:58" ht="14">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="33"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="18"/>
       <c r="F54" s="5" t="s">
         <v>63</v>
       </c>
@@ -10345,15 +10345,15 @@
       </c>
     </row>
     <row r="55" spans="1:58" ht="14">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="33"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="18"/>
       <c r="F55" s="5" t="s">
         <v>63</v>
       </c>
@@ -10515,15 +10515,15 @@
       </c>
     </row>
     <row r="56" spans="1:58" ht="14">
-      <c r="A56" s="35"/>
-      <c r="B56" s="34" t="s">
+      <c r="A56" s="21"/>
+      <c r="B56" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="32"/>
-      <c r="E56" s="33"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="18"/>
       <c r="F56" s="5" t="s">
         <v>63</v>
       </c>
@@ -10685,13 +10685,13 @@
       </c>
     </row>
     <row r="57" spans="1:58" ht="14">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="31" t="s">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="33"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="18"/>
       <c r="F57" s="5" t="s">
         <v>63</v>
       </c>
@@ -10853,15 +10853,15 @@
       </c>
     </row>
     <row r="58" spans="1:58" ht="24">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E58" s="33"/>
+      <c r="E58" s="18"/>
       <c r="F58" s="5" t="s">
         <v>63</v>
       </c>
@@ -11023,13 +11023,13 @@
       </c>
     </row>
     <row r="59" spans="1:58" ht="14">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="31" t="s">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="33"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="18"/>
       <c r="F59" s="5" t="s">
         <v>63</v>
       </c>
@@ -11191,13 +11191,13 @@
       </c>
     </row>
     <row r="60" spans="1:58" ht="14">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="31" t="s">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="32"/>
-      <c r="E60" s="33"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="18"/>
       <c r="F60" s="5" t="s">
         <v>63</v>
       </c>
@@ -11359,13 +11359,13 @@
       </c>
     </row>
     <row r="61" spans="1:58" ht="14">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="31" t="s">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="33"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="18"/>
       <c r="F61" s="5" t="s">
         <v>63</v>
       </c>
@@ -11527,13 +11527,13 @@
       </c>
     </row>
     <row r="62" spans="1:58" ht="14">
-      <c r="A62" s="35"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="31" t="s">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D62" s="32"/>
-      <c r="E62" s="33"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="18"/>
       <c r="F62" s="5" t="s">
         <v>63</v>
       </c>
@@ -11695,13 +11695,13 @@
       </c>
     </row>
     <row r="63" spans="1:58" ht="14">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="31" t="s">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D63" s="32"/>
-      <c r="E63" s="33"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="18"/>
       <c r="F63" s="5" t="s">
         <v>63</v>
       </c>
@@ -11863,13 +11863,13 @@
       </c>
     </row>
     <row r="64" spans="1:58" ht="14">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="31" t="s">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="33"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="18"/>
       <c r="F64" s="5" t="s">
         <v>63</v>
       </c>
@@ -12031,13 +12031,13 @@
       </c>
     </row>
     <row r="65" spans="1:58" ht="14">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="31" t="s">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="33"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="18"/>
       <c r="F65" s="5" t="s">
         <v>63</v>
       </c>
@@ -12199,13 +12199,13 @@
       </c>
     </row>
     <row r="66" spans="1:58" ht="14">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="31" t="s">
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D66" s="32"/>
-      <c r="E66" s="33"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="18"/>
       <c r="F66" s="5" t="s">
         <v>63</v>
       </c>
@@ -12367,13 +12367,13 @@
       </c>
     </row>
     <row r="67" spans="1:58" ht="14">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="31" t="s">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D67" s="32"/>
-      <c r="E67" s="33"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="18"/>
       <c r="F67" s="5" t="s">
         <v>63</v>
       </c>
@@ -12535,15 +12535,15 @@
       </c>
     </row>
     <row r="68" spans="1:58" ht="14">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="34" t="s">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D68" s="31" t="s">
+      <c r="D68" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E68" s="33"/>
+      <c r="E68" s="18"/>
       <c r="F68" s="5" t="s">
         <v>63</v>
       </c>
@@ -12705,13 +12705,13 @@
       </c>
     </row>
     <row r="69" spans="1:58" ht="14">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="31" t="s">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E69" s="33"/>
+      <c r="E69" s="18"/>
       <c r="F69" s="5" t="s">
         <v>63</v>
       </c>
@@ -12873,9 +12873,9 @@
       </c>
     </row>
     <row r="70" spans="1:58" ht="24">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="6" t="s">
         <v>126</v>
       </c>
@@ -13043,13 +13043,13 @@
       </c>
     </row>
     <row r="71" spans="1:58" ht="14">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="31" t="s">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="33"/>
+      <c r="E71" s="18"/>
       <c r="F71" s="5" t="s">
         <v>63</v>
       </c>
@@ -13211,13 +13211,13 @@
       </c>
     </row>
     <row r="72" spans="1:58" ht="14">
-      <c r="A72" s="35"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="31" t="s">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E72" s="33"/>
+      <c r="E72" s="18"/>
       <c r="F72" s="5" t="s">
         <v>63</v>
       </c>
@@ -13379,13 +13379,13 @@
       </c>
     </row>
     <row r="73" spans="1:58" ht="14">
-      <c r="A73" s="35"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="31" t="s">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E73" s="33"/>
+      <c r="E73" s="18"/>
       <c r="F73" s="5" t="s">
         <v>63</v>
       </c>
@@ -13547,13 +13547,13 @@
       </c>
     </row>
     <row r="74" spans="1:58" ht="14">
-      <c r="A74" s="35"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="31" t="s">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E74" s="33"/>
+      <c r="E74" s="18"/>
       <c r="F74" s="5" t="s">
         <v>63</v>
       </c>
@@ -13715,13 +13715,13 @@
       </c>
     </row>
     <row r="75" spans="1:58" ht="14">
-      <c r="A75" s="35"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="31" t="s">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E75" s="33"/>
+      <c r="E75" s="18"/>
       <c r="F75" s="5" t="s">
         <v>63</v>
       </c>
@@ -13883,13 +13883,13 @@
       </c>
     </row>
     <row r="76" spans="1:58" ht="14">
-      <c r="A76" s="35"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="31" t="s">
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E76" s="33"/>
+      <c r="E76" s="18"/>
       <c r="F76" s="5" t="s">
         <v>63</v>
       </c>
@@ -14051,13 +14051,13 @@
       </c>
     </row>
     <row r="77" spans="1:58" ht="14">
-      <c r="A77" s="35"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="31" t="s">
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E77" s="33"/>
+      <c r="E77" s="18"/>
       <c r="F77" s="5" t="s">
         <v>63</v>
       </c>
@@ -14219,13 +14219,13 @@
       </c>
     </row>
     <row r="78" spans="1:58" ht="14">
-      <c r="A78" s="35"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="31" t="s">
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="E78" s="33"/>
+      <c r="E78" s="18"/>
       <c r="F78" s="5" t="s">
         <v>63</v>
       </c>
@@ -14387,13 +14387,13 @@
       </c>
     </row>
     <row r="79" spans="1:58" ht="14">
-      <c r="A79" s="35"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="31" t="s">
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D79" s="32"/>
-      <c r="E79" s="33"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="18"/>
       <c r="F79" s="5" t="s">
         <v>63</v>
       </c>
@@ -14555,15 +14555,15 @@
       </c>
     </row>
     <row r="80" spans="1:58" ht="14">
-      <c r="A80" s="35"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="34" t="s">
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D80" s="31" t="s">
+      <c r="D80" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E80" s="33"/>
+      <c r="E80" s="18"/>
       <c r="F80" s="5" t="s">
         <v>63</v>
       </c>
@@ -14725,13 +14725,13 @@
       </c>
     </row>
     <row r="81" spans="1:58" ht="14">
-      <c r="A81" s="35"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="31" t="s">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E81" s="33"/>
+      <c r="E81" s="18"/>
       <c r="F81" s="5" t="s">
         <v>63</v>
       </c>
@@ -14893,9 +14893,9 @@
       </c>
     </row>
     <row r="82" spans="1:58" ht="24">
-      <c r="A82" s="35"/>
-      <c r="B82" s="35"/>
-      <c r="C82" s="35"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
       <c r="D82" s="6" t="s">
         <v>138</v>
       </c>
@@ -15063,13 +15063,13 @@
       </c>
     </row>
     <row r="83" spans="1:58" ht="14">
-      <c r="A83" s="35"/>
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="31" t="s">
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E83" s="33"/>
+      <c r="E83" s="18"/>
       <c r="F83" s="5" t="s">
         <v>63</v>
       </c>
@@ -15231,13 +15231,13 @@
       </c>
     </row>
     <row r="84" spans="1:58" ht="14">
-      <c r="A84" s="35"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="31" t="s">
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E84" s="33"/>
+      <c r="E84" s="18"/>
       <c r="F84" s="5" t="s">
         <v>63</v>
       </c>
@@ -15399,13 +15399,13 @@
       </c>
     </row>
     <row r="85" spans="1:58" ht="14">
-      <c r="A85" s="35"/>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="31" t="s">
+      <c r="A85" s="21"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E85" s="33"/>
+      <c r="E85" s="18"/>
       <c r="F85" s="5" t="s">
         <v>63</v>
       </c>
@@ -15567,13 +15567,13 @@
       </c>
     </row>
     <row r="86" spans="1:58" ht="14">
-      <c r="A86" s="35"/>
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="31" t="s">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E86" s="33"/>
+      <c r="E86" s="18"/>
       <c r="F86" s="5" t="s">
         <v>63</v>
       </c>
@@ -15735,13 +15735,13 @@
       </c>
     </row>
     <row r="87" spans="1:58" ht="14">
-      <c r="A87" s="35"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="31" t="s">
+      <c r="A87" s="21"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E87" s="33"/>
+      <c r="E87" s="18"/>
       <c r="F87" s="5" t="s">
         <v>63</v>
       </c>
@@ -15903,13 +15903,13 @@
       </c>
     </row>
     <row r="88" spans="1:58" ht="14">
-      <c r="A88" s="35"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="31" t="s">
+      <c r="A88" s="21"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E88" s="33"/>
+      <c r="E88" s="18"/>
       <c r="F88" s="5" t="s">
         <v>63</v>
       </c>
@@ -16071,13 +16071,13 @@
       </c>
     </row>
     <row r="89" spans="1:58" ht="14">
-      <c r="A89" s="35"/>
-      <c r="B89" s="35"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="31" t="s">
+      <c r="A89" s="21"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E89" s="33"/>
+      <c r="E89" s="18"/>
       <c r="F89" s="5" t="s">
         <v>63</v>
       </c>
@@ -16239,13 +16239,13 @@
       </c>
     </row>
     <row r="90" spans="1:58" ht="14">
-      <c r="A90" s="35"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="31" t="s">
+      <c r="A90" s="21"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E90" s="33"/>
+      <c r="E90" s="18"/>
       <c r="F90" s="5" t="s">
         <v>63</v>
       </c>
@@ -16407,13 +16407,13 @@
       </c>
     </row>
     <row r="91" spans="1:58" ht="14">
-      <c r="A91" s="35"/>
-      <c r="B91" s="31" t="s">
+      <c r="A91" s="21"/>
+      <c r="B91" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="33"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="18"/>
       <c r="F91" s="5" t="s">
         <v>63</v>
       </c>
@@ -16575,13 +16575,13 @@
       </c>
     </row>
     <row r="92" spans="1:58" ht="14">
-      <c r="A92" s="35"/>
-      <c r="B92" s="31" t="s">
+      <c r="A92" s="21"/>
+      <c r="B92" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="33"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="18"/>
       <c r="F92" s="5" t="s">
         <v>63</v>
       </c>
@@ -16743,15 +16743,15 @@
       </c>
     </row>
     <row r="93" spans="1:58" ht="14">
-      <c r="A93" s="35"/>
-      <c r="B93" s="34" t="s">
+      <c r="A93" s="21"/>
+      <c r="B93" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C93" s="31" t="s">
+      <c r="C93" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D93" s="32"/>
-      <c r="E93" s="33"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="18"/>
       <c r="F93" s="5" t="s">
         <v>63</v>
       </c>
@@ -16913,13 +16913,13 @@
       </c>
     </row>
     <row r="94" spans="1:58" ht="14">
-      <c r="A94" s="35"/>
-      <c r="B94" s="36"/>
-      <c r="C94" s="31" t="s">
+      <c r="A94" s="21"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D94" s="32"/>
-      <c r="E94" s="33"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="18"/>
       <c r="F94" s="5" t="s">
         <v>63</v>
       </c>
@@ -17081,13 +17081,13 @@
       </c>
     </row>
     <row r="95" spans="1:58" ht="14">
-      <c r="A95" s="36"/>
-      <c r="B95" s="31" t="s">
+      <c r="A95" s="20"/>
+      <c r="B95" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="33"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="18"/>
       <c r="F95" s="5" t="s">
         <v>63</v>
       </c>
@@ -17268,27 +17268,70 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="C68:C78"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:BF3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BF4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BF5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:A25"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:C21"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:A53"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B37:B46"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
     <mergeCell ref="C62:E62"/>
     <mergeCell ref="C63:E63"/>
     <mergeCell ref="C64:E64"/>
@@ -17313,70 +17356,27 @@
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="D85:E85"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:A53"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B37:B46"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="A9:A25"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:B21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:C21"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:BF3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BF4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BF5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="C68:C78"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
@@ -17397,8 +17397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF65AF95-D954-414C-B9DF-9D74F29E5FC8}">
   <dimension ref="A1:BF34"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="157" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="157" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -17412,206 +17412,206 @@
       </c>
     </row>
     <row r="2" spans="1:58">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20"/>
-      <c r="BD2" s="20"/>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="21"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="26"/>
+      <c r="BC2" s="26"/>
+      <c r="BD2" s="26"/>
+      <c r="BE2" s="26"/>
+      <c r="BF2" s="27"/>
     </row>
     <row r="3" spans="1:58">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="22" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="23"/>
-      <c r="AM3" s="23"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
-      <c r="AQ3" s="23"/>
-      <c r="AR3" s="23"/>
-      <c r="AS3" s="23"/>
-      <c r="AT3" s="23"/>
-      <c r="AU3" s="23"/>
-      <c r="AV3" s="23"/>
-      <c r="AW3" s="23"/>
-      <c r="AX3" s="23"/>
-      <c r="AY3" s="23"/>
-      <c r="AZ3" s="23"/>
-      <c r="BA3" s="23"/>
-      <c r="BB3" s="23"/>
-      <c r="BC3" s="23"/>
-      <c r="BD3" s="23"/>
-      <c r="BE3" s="23"/>
-      <c r="BF3" s="24"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="29"/>
+      <c r="AX3" s="29"/>
+      <c r="AY3" s="29"/>
+      <c r="AZ3" s="29"/>
+      <c r="BA3" s="29"/>
+      <c r="BB3" s="29"/>
+      <c r="BC3" s="29"/>
+      <c r="BD3" s="29"/>
+      <c r="BE3" s="29"/>
+      <c r="BF3" s="30"/>
     </row>
     <row r="4" spans="1:58">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="22" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="23"/>
-      <c r="AQ4" s="23"/>
-      <c r="AR4" s="23"/>
-      <c r="AS4" s="23"/>
-      <c r="AT4" s="23"/>
-      <c r="AU4" s="23"/>
-      <c r="AV4" s="23"/>
-      <c r="AW4" s="23"/>
-      <c r="AX4" s="23"/>
-      <c r="AY4" s="23"/>
-      <c r="AZ4" s="23"/>
-      <c r="BA4" s="23"/>
-      <c r="BB4" s="23"/>
-      <c r="BC4" s="23"/>
-      <c r="BD4" s="23"/>
-      <c r="BE4" s="23"/>
-      <c r="BF4" s="24"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="29"/>
+      <c r="AQ4" s="29"/>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="29"/>
+      <c r="AT4" s="29"/>
+      <c r="AU4" s="29"/>
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="29"/>
+      <c r="AX4" s="29"/>
+      <c r="AY4" s="29"/>
+      <c r="AZ4" s="29"/>
+      <c r="BA4" s="29"/>
+      <c r="BB4" s="29"/>
+      <c r="BC4" s="29"/>
+      <c r="BD4" s="29"/>
+      <c r="BE4" s="29"/>
+      <c r="BF4" s="30"/>
     </row>
     <row r="5" spans="1:58">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
@@ -17770,13 +17770,13 @@
       </c>
     </row>
     <row r="6" spans="1:58" ht="14">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="5" t="s">
         <v>62</v>
       </c>
@@ -17938,13 +17938,13 @@
       </c>
     </row>
     <row r="7" spans="1:58" ht="14">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="5" t="s">
         <v>63</v>
       </c>
@@ -18106,15 +18106,15 @@
       </c>
     </row>
     <row r="8" spans="1:58" ht="14">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="5" t="s">
         <v>63</v>
       </c>
@@ -18276,13 +18276,13 @@
       </c>
     </row>
     <row r="9" spans="1:58" ht="14">
-      <c r="A9" s="35"/>
-      <c r="B9" s="31" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="5" t="s">
         <v>63</v>
       </c>
@@ -18444,8 +18444,8 @@
       </c>
     </row>
     <row r="10" spans="1:58" ht="14">
-      <c r="A10" s="35"/>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="19" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -18614,15 +18614,15 @@
       </c>
     </row>
     <row r="11" spans="1:58" ht="14">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="34" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="5" t="s">
         <v>63</v>
       </c>
@@ -18784,13 +18784,13 @@
       </c>
     </row>
     <row r="12" spans="1:58" ht="14">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="31" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="33"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="5" t="s">
         <v>63</v>
       </c>
@@ -18952,13 +18952,13 @@
       </c>
     </row>
     <row r="13" spans="1:58" ht="14">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="31" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="5" t="s">
         <v>63</v>
       </c>
@@ -19120,15 +19120,15 @@
       </c>
     </row>
     <row r="14" spans="1:58" ht="14">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="34" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="33"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="5" t="s">
         <v>63</v>
       </c>
@@ -19290,13 +19290,13 @@
       </c>
     </row>
     <row r="15" spans="1:58" ht="14">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="31" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="33"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="5" t="s">
         <v>63</v>
       </c>
@@ -19458,13 +19458,13 @@
       </c>
     </row>
     <row r="16" spans="1:58" ht="14">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="31" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="5" t="s">
         <v>63</v>
       </c>
@@ -19626,13 +19626,13 @@
       </c>
     </row>
     <row r="17" spans="1:58" ht="14">
-      <c r="A17" s="35"/>
-      <c r="B17" s="31" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="5" t="s">
         <v>63</v>
       </c>
@@ -19794,15 +19794,15 @@
       </c>
     </row>
     <row r="18" spans="1:58" ht="14">
-      <c r="A18" s="35"/>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="5" t="s">
         <v>63</v>
       </c>
@@ -19964,15 +19964,15 @@
       </c>
     </row>
     <row r="19" spans="1:58" ht="14">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="34" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="33"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="5" t="s">
         <v>63</v>
       </c>
@@ -20134,13 +20134,13 @@
       </c>
     </row>
     <row r="20" spans="1:58" ht="14">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="31" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="33"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="5" t="s">
         <v>62</v>
       </c>
@@ -20302,13 +20302,13 @@
       </c>
     </row>
     <row r="21" spans="1:58" ht="14">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="31" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="33"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="5" t="s">
         <v>63</v>
       </c>
@@ -20470,10 +20470,10 @@
       </c>
     </row>
     <row r="22" spans="1:58" ht="14">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="34" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="19" t="s">
         <v>97</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -20640,10 +20640,10 @@
       </c>
     </row>
     <row r="23" spans="1:58" ht="14">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="6" t="s">
         <v>99</v>
       </c>
@@ -20808,10 +20808,10 @@
       </c>
     </row>
     <row r="24" spans="1:58" ht="14">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="6" t="s">
         <v>100</v>
       </c>
@@ -20976,13 +20976,13 @@
       </c>
     </row>
     <row r="25" spans="1:58" ht="14">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="31" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="33"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="5" t="s">
         <v>63</v>
       </c>
@@ -21144,13 +21144,13 @@
       </c>
     </row>
     <row r="26" spans="1:58" ht="14">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="31" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="5" t="s">
         <v>63</v>
       </c>
@@ -21312,15 +21312,15 @@
       </c>
     </row>
     <row r="27" spans="1:58" ht="84">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="33"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="5" t="s">
         <v>63</v>
       </c>
@@ -21482,13 +21482,13 @@
       </c>
     </row>
     <row r="28" spans="1:58" ht="14">
-      <c r="A28" s="35"/>
-      <c r="B28" s="31" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="5" t="s">
         <v>63</v>
       </c>
@@ -21650,15 +21650,15 @@
       </c>
     </row>
     <row r="29" spans="1:58" ht="14">
-      <c r="A29" s="35"/>
-      <c r="B29" s="34" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="5" t="s">
         <v>63</v>
       </c>
@@ -21820,15 +21820,15 @@
       </c>
     </row>
     <row r="30" spans="1:58" ht="14">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="34" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="33"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="5" t="s">
         <v>63</v>
       </c>
@@ -21990,13 +21990,13 @@
       </c>
     </row>
     <row r="31" spans="1:58" ht="14">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="31" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="33"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="5" t="s">
         <v>63</v>
       </c>
@@ -22158,13 +22158,13 @@
       </c>
     </row>
     <row r="32" spans="1:58" ht="14">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="31" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
       <c r="F32" s="5" t="s">
         <v>63</v>
       </c>
@@ -22326,15 +22326,15 @@
       </c>
     </row>
     <row r="33" spans="1:58" ht="14">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="34" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="33"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="5" t="s">
         <v>63</v>
       </c>
@@ -22496,13 +22496,13 @@
       </c>
     </row>
     <row r="34" spans="1:58" ht="14">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="31" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="33"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="5" t="s">
         <v>63</v>
       </c>
@@ -22665,12 +22665,27 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:BF2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:BF3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BF4"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:B27"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:C25"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:E6"/>
@@ -22687,27 +22702,12 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:B27"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:C25"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:BF2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:BF3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
@@ -22725,7 +22725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C846E1-5815-6C47-A935-01104D3334C8}">
   <dimension ref="A1:BA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
+    <sheetView zoomScale="171" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
